--- a/medicine/Premiers secours et secourisme/Secours_paramédicaux_au_Canada/Secours_paramédicaux_au_Canada.xlsx
+++ b/medicine/Premiers secours et secourisme/Secours_paramédicaux_au_Canada/Secours_paramédicaux_au_Canada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Secours_param%C3%A9dicaux_au_Canada</t>
+          <t>Secours_paramédicaux_au_Canada</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Canada, les secours paramédicaux sont obligatoirement professionnels, et assignent les premiers secours en cas d'urgence et de blessures. Ce terme est généralement limité pour désigner les personnes travaillant dans tous types d'ambulances. Au Canada, le terme 'paramédical' est typiquement une généralité, pour désigner une personne travaillant sur terre ou dans les airs (hélicoptères d'urgence).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Secours_param%C3%A9dicaux_au_Canada</t>
+          <t>Secours_paramédicaux_au_Canada</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Emergency Medical Responder (EMR)/ Répondant Médical d'Urgence (RMU)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les répondants médicaux d'urgence (aussi appelé premier répondant) est un niveau de qualification établi pour des volontaires dans des services ruraux ou en région éloigné qui n'ont pas les moyens de former du personnel avec les qualifications de paramédic, ou encore pour des membres de brigade d'incendies (premier répondant). Il s'agit d'une formation de premiers soins de niveau avancés bien reconnu pour les pompiers répondant souvent à des appels et travaillant aux côtés de  paramédics, pour les secouriste en milieu industriel, et pour d'autres genres de services de premier répondant. 
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Secours_param%C3%A9dicaux_au_Canada</t>
+          <t>Secours_paramédicaux_au_Canada</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Primary Care Paramedic (PCP)/Paramédic en Soins Primaire (PSP)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les étudiants inscrits à un programme d’études paramédicales apprennent tous les aspects des consultations médicales d’urgence, des étapes précédant le diagnostic et des protocoles de traitement médical à jour. Le programme d’étude comprend une grande variété de cours relatifs à la biologie, la pharmacologie, l’évaluation du patient, les questions médico-légales, la gestion de patients souffrant de troubles médicaux et de traumatismes et la conduite de véhicules d'urgence. La durée de formation varie pour chaque province, allant de 6 mois jusqu'à 3 ans. Les étudiants doivent également compléter entre 150 &amp; 500 heures de stage dans un hôpital et à bord d'une ambulance. Cette expérience pratique de travail fournit aux étudiants des situations réelles qui leur permettent d'acquérir et de perfectionner des compétences variées dans diverses situations cliniques sous la supervision de paramédics, d'infirmières et de médecins.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Secours_param%C3%A9dicaux_au_Canada</t>
+          <t>Secours_paramédicaux_au_Canada</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Advanced Care Paramedic (ACP)/Paramédic en Soins Avancés (PSA)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En général, au moins deux années d'expérience dans le domaine des soins médicaux d'urgence sont requises pour être admis à la formation du niveau APNA. Le programme d'APNA est d'une durée d'un an et est considéré comme un programme d'études supérieures (1 200 heures).
 En plus des exigences relatives aux APSP, les APNA doivent avoir les compétences requises pour pratiquer des soins avancés des voies respiratoires, l'intubation orale et nasotrachéale, la laryngoscopie et le retrait des corps étrangers obstruants à l'aide de pinces Magill, la ventilation mécanique, l'interprétation des ECG à 12 dérivations, la cardioversion synchronisée, la défibrillation manuelle et l'électro-entraînement cardiaque externe, le traitement des urgences cardiaques conformément aux directives de réanimation cardiorespiratoire avancée de la Fondation des maladies du cœur, la thoracostomie par aiguille ainsi que l'administration des médicaments d'urgence suivants : adénosine, AAS, atropine, diazépam, dopamine, dextrose, épinéphrine, furosémide, glucagon, lidocaïne, naloxone, nitroglycérine, oxygène, salbutamol, bicarbonate de sodium, entre autres (la liste des médicaments peut varier d'un département à l'autre).
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Secours_param%C3%A9dicaux_au_Canada</t>
+          <t>Secours_paramédicaux_au_Canada</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Critical Care Paramedic (CCP)/Paramédic en Soins Critique (PSC)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La certification comme Paramédic en Soins Critique, est le plus haut niveau présentement disponible, qui requiert d'avoir complété avec succès le programme d'éducation au niveau de soins critique. Les PSC forment un très petit groupe de paramédicaux spécialisés au Canada, et la plupart d'entre eux travaillent dans les services aéromédicaux, offrant des soins critiques pour les patients lors de transport aérien. Une plus petite portion de PSC travaillent au transport terrestre de soins critique (example: transport inter-établissement pour un patient sur ventilation mécanique).
 En plus des connaissances de niveau PSP et PSA, les PSC travaillent à un niveau se comparant à celui requis dans une unité de soins intensif dans un centre hospitalier. Les PSC sont formés pour l'interprétation de résultats de laboratoire ou des radiographies, et de posés des actes médicaux de niveau plus élevé que ceux prodiguer par un PSA. Les PSC travaillent avec de l'équipement médical sophistiqué, incluant des appareils de ventilation mécanique et des appareils de monitorage hémodynamique. Les PSC vont typiquement implémenter des mesures de traitement invasif et pharmacologique avancés.
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Secours_param%C3%A9dicaux_au_Canada</t>
+          <t>Secours_paramédicaux_au_Canada</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Au Québec (Canada)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le métier de paramédic :
 Le métier de technicien ambulancier est en constante évolution au Québec. Le titre d'emploi technicien ambulancier a été modifié pour celui de technicien ambulancier/paramédic en mars 2008 à la suite de la signature d'un nouveau contrat de travail entre les différents syndicats de techniciens ambulanciers/paramédics, les entreprises privées ou coopératives de services préhospitaliers, la Corporation d'urgences-santé et le gouvernement du Québec. Toutefois, le terme largement utilisé pour désigner le technicien ambulancier/paramédic au Québec est tout simplement celui de PARAMÉDIC et cela, à l'image de ce qui se fait dans une grande partie de la communauté internationale pour désigner ces professionnels des soins médicaux d'urgence. Les tâches du paramédic québécois ont beaucoup évolué depuis plus ou moins 15 ans, mais davantage depuis 8 ans avec l'arrivée des 5 médicaments administrés par ceux-ci (nitroglycérine, acide acétylsalicylique (AAS), salbutamol, épinéphrine et glucagon). Précédemment à l'arrivée des 5 médicaments, la défibrillation, la ventilation par Combitube (marque déposée) (appareil fabriqué pour les soins préhospitaliers) et l'implantation d'un moniteur défibrillateur semi-automatique (MDSA) plus performant ont été autant d'actes médicaux délégués au paramédic, à la fois par le Collège des médecins et par le ministère de la Santé et des Services Sociaux.  Tous les protocoles de soins primaires pratiqués par les paramédics au Québec se font sous l'autorité du directeur médical régional et autorisés par la table provinciale des coordonnateurs médicaux.
